--- a/data/trans_orig/P20B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P20B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EA7289B-D52D-4FB5-987A-DB930A8D8132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2E183AA-44B5-4B8A-84E1-8D34C553F6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C899A4AA-E119-4310-A7D5-327866B7559B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6A8B3795-9944-4015-A82F-876951466ABE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,28 +77,28 @@
     <t>26,06%</t>
   </si>
   <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
   </si>
   <si>
     <t>31,67%</t>
   </si>
   <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
   </si>
   <si>
     <t>29,44%</t>
   </si>
   <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>73,94%</t>
   </si>
   <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
   </si>
   <si>
     <t>68,33%</t>
   </si>
   <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
   </si>
   <si>
     <t>70,56%</t>
   </si>
   <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
+    <t>63,2%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>21,24%</t>
   </si>
   <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
   </si>
   <si>
     <t>14,96%</t>
   </si>
   <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
   </si>
   <si>
     <t>78,76%</t>
   </si>
   <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
   </si>
   <si>
     <t>87,52%</t>
   </si>
   <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
   </si>
   <si>
     <t>85,04%</t>
   </si>
   <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>36,65%</t>
   </si>
   <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
   </si>
   <si>
     <t>12,15%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
   </si>
   <si>
     <t>22,02%</t>
   </si>
   <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
   </si>
   <si>
     <t>63,35%</t>
   </si>
   <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
   </si>
   <si>
     <t>87,85%</t>
   </si>
   <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
   </si>
   <si>
     <t>77,98%</t>
   </si>
   <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
   </si>
   <si>
     <t>26,24%</t>
   </si>
   <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
   </si>
   <si>
     <t>20,2%</t>
   </si>
   <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
   </si>
   <si>
     <t>22,32%</t>
   </si>
   <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
   </si>
   <si>
     <t>73,76%</t>
   </si>
   <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
   </si>
   <si>
     <t>79,8%</t>
   </si>
   <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
   </si>
   <si>
     <t>77,68%</t>
   </si>
   <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -314,31 +314,31 @@
     <t>20,26%</t>
   </si>
   <si>
-    <t>38,47%</t>
+    <t>39,68%</t>
   </si>
   <si>
     <t>29,12%</t>
   </si>
   <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
   </si>
   <si>
     <t>28,67%</t>
   </si>
   <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
   </si>
   <si>
     <t>71,95%</t>
   </si>
   <si>
-    <t>61,53%</t>
+    <t>60,32%</t>
   </si>
   <si>
     <t>79,74%</t>
@@ -347,73 +347,73 @@
     <t>70,88%</t>
   </si>
   <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
   </si>
   <si>
     <t>71,33%</t>
   </si>
   <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
   </si>
   <si>
     <t>31,96%</t>
   </si>
   <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
   </si>
   <si>
     <t>21,45%</t>
   </si>
   <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
   </si>
   <si>
     <t>25,37%</t>
   </si>
   <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
   </si>
   <si>
     <t>68,04%</t>
   </si>
   <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
   </si>
   <si>
     <t>78,55%</t>
   </si>
   <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
   </si>
   <si>
     <t>74,63%</t>
   </si>
   <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
   </si>
   <si>
     <t>22,7%</t>
@@ -422,31 +422,31 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>59,91%</t>
+    <t>60,5%</t>
   </si>
   <si>
     <t>21,83%</t>
   </si>
   <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
   </si>
   <si>
     <t>22,05%</t>
   </si>
   <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
   </si>
   <si>
     <t>77,3%</t>
   </si>
   <si>
-    <t>40,09%</t>
+    <t>39,5%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -455,499 +455,499 @@
     <t>78,17%</t>
   </si>
   <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
   </si>
   <si>
     <t>77,95%</t>
   </si>
   <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
   </si>
   <si>
     <t>29,48%</t>
   </si>
   <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
   </si>
   <si>
     <t>24,59%</t>
   </si>
   <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
   </si>
   <si>
     <t>26,46%</t>
   </si>
   <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2015 (Tasa respuesta: 6,1%)</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2023 (Tasa respuesta: 6,54%)</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
     <t>22,67%</t>
   </si>
   <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
   </si>
   <si>
     <t>77,33%</t>
   </si>
   <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2015 (Tasa respuesta: 6,1%)</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2023 (Tasa respuesta: 6,54%)</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
   </si>
   <si>
     <t>72,49%</t>
   </si>
   <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D8D07A-6FFF-4EC1-B061-DFFB6853829C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5597F994-C052-4E8E-B14E-76AC28E41178}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2110,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39244C00-4635-46A2-8D50-C1F3CD19A778}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB037076-E2B6-4110-AE5A-CD407E8742A7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2861,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A736AC-D425-4202-9D7A-C92AB63F8937}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A02316E-8E90-46F6-B77E-1A65CB4544DA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3612,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291A11A9-D205-4866-B2B3-57E9239D8900}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFE201A-ACC1-4732-B9D2-AEA3EE530BE5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4204,10 +4204,10 @@
         <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
@@ -4216,7 +4216,7 @@
         <v>53558</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>150</v>
+        <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>290</v>
@@ -4258,16 +4258,16 @@
         <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>259</v>
       </c>
       <c r="I14" s="7">
-        <v>182649</v>
+        <v>182648</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>160</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>298</v>
@@ -4315,7 +4315,7 @@
         <v>343</v>
       </c>
       <c r="I15" s="7">
-        <v>236207</v>
+        <v>236206</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P20B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P20B-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2E183AA-44B5-4B8A-84E1-8D34C553F6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BDA7425-6A6B-4B7D-9B25-E03740218FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6A8B3795-9944-4015-A82F-876951466ABE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C48D33AF-30ED-42B5-9117-D31362EC2210}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
   <si>
     <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2007 (Tasa respuesta: 5,77%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>26,06%</t>
   </si>
   <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
   </si>
   <si>
     <t>31,67%</t>
   </si>
   <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
   </si>
   <si>
     <t>29,44%</t>
   </si>
   <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>73,94%</t>
   </si>
   <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
   </si>
   <si>
     <t>68,33%</t>
   </si>
   <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
   </si>
   <si>
     <t>70,56%</t>
   </si>
   <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>21,24%</t>
   </si>
   <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
   </si>
   <si>
     <t>14,96%</t>
   </si>
   <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
   </si>
   <si>
     <t>78,76%</t>
   </si>
   <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
   </si>
   <si>
     <t>87,52%</t>
   </si>
   <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
   </si>
   <si>
     <t>85,04%</t>
   </si>
   <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,739 +197,745 @@
     <t>36,65%</t>
   </si>
   <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
   </si>
   <si>
     <t>12,15%</t>
   </si>
   <si>
-    <t>3,47%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2012 (Tasa respuesta: 7,73%)</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2016 (Tasa respuesta: 6,1%)</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2023 (Tasa respuesta: 6,54%)</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
   </si>
   <si>
     <t>26,95%</t>
   </si>
   <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>59,75%</t>
   </si>
   <si>
     <t>73,05%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2012 (Tasa respuesta: 7,73%)</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2015 (Tasa respuesta: 6,1%)</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2023 (Tasa respuesta: 6,54%)</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
   </si>
   <si>
     <t>77,33%</t>
@@ -1359,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5597F994-C052-4E8E-B14E-76AC28E41178}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A6E0AA-50AB-4662-BEB2-465661B0490D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2110,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB037076-E2B6-4110-AE5A-CD407E8742A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238BB567-A5E3-43D5-B48C-474DC16B99C9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2861,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A02316E-8E90-46F6-B77E-1A65CB4544DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFF92D5-C3E4-4A5B-BA55-D66D570D4FA7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3612,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFE201A-ACC1-4732-B9D2-AEA3EE530BE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6828658-C875-47F4-BA32-C5BA37BCD94A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4204,10 +4210,10 @@
         <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>56</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
@@ -4216,13 +4222,13 @@
         <v>53558</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>161</v>
@@ -4231,13 +4237,13 @@
         <v>118781</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4258,13 @@
         <v>130418</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>259</v>
@@ -4267,13 +4273,13 @@
         <v>182648</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>409</v>
@@ -4282,13 +4288,13 @@
         <v>313066</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P20B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P20B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BDA7425-6A6B-4B7D-9B25-E03740218FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC3ECD50-3D67-4DE4-8F91-1996B4ED28F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C48D33AF-30ED-42B5-9117-D31362EC2210}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A3655DF6-151F-411A-B6EE-DA62CACCB6CB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
   <si>
     <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2007 (Tasa respuesta: 5,77%)</t>
   </si>
@@ -71,16 +71,16 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>26,06%</t>
   </si>
   <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
   </si>
   <si>
     <t>31,67%</t>
@@ -89,7 +89,7 @@
     <t>23,64%</t>
   </si>
   <si>
-    <t>42,09%</t>
+    <t>40,64%</t>
   </si>
   <si>
     <t>29,44%</t>
@@ -98,7 +98,7 @@
     <t>23,08%</t>
   </si>
   <si>
-    <t>36,79%</t>
+    <t>37,02%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,16 +107,16 @@
     <t>73,94%</t>
   </si>
   <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
   </si>
   <si>
     <t>68,33%</t>
   </si>
   <si>
-    <t>57,91%</t>
+    <t>59,36%</t>
   </si>
   <si>
     <t>76,36%</t>
@@ -125,7 +125,7 @@
     <t>70,56%</t>
   </si>
   <si>
-    <t>63,21%</t>
+    <t>62,98%</t>
   </si>
   <si>
     <t>76,92%</t>
@@ -140,55 +140,55 @@
     <t>21,24%</t>
   </si>
   <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
   </si>
   <si>
     <t>14,96%</t>
   </si>
   <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
   </si>
   <si>
     <t>78,76%</t>
   </si>
   <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
   </si>
   <si>
     <t>87,52%</t>
   </si>
   <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
   </si>
   <si>
     <t>85,04%</t>
   </si>
   <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,763 +197,757 @@
     <t>36,65%</t>
   </si>
   <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
   </si>
   <si>
     <t>12,15%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
   </si>
   <si>
     <t>22,02%</t>
   </si>
   <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
   </si>
   <si>
     <t>63,35%</t>
   </si>
   <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
   </si>
   <si>
     <t>87,85%</t>
   </si>
   <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
   </si>
   <si>
     <t>77,98%</t>
   </si>
   <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
   </si>
   <si>
     <t>26,24%</t>
   </si>
   <si>
-    <t>19,37%</t>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2012 (Tasa respuesta: 7,73%)</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2016 (Tasa respuesta: 6,1%)</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2023 (Tasa respuesta: 6,54%)</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
   </si>
   <si>
     <t>34,09%</t>
   </si>
   <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
   </si>
   <si>
     <t>65,91%</t>
   </si>
   <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2012 (Tasa respuesta: 7,73%)</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2016 (Tasa respuesta: 6,1%)</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2023 (Tasa respuesta: 6,54%)</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
+    <t>83,79%</t>
   </si>
   <si>
     <t>71,05%</t>
   </si>
   <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
   </si>
   <si>
     <t>34,56%</t>
   </si>
   <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
   </si>
   <si>
     <t>24,28%</t>
   </si>
   <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
   </si>
   <si>
     <t>28,79%</t>
   </si>
   <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
   </si>
   <si>
     <t>65,44%</t>
   </si>
   <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
   </si>
   <si>
     <t>75,72%</t>
   </si>
   <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
   </si>
   <si>
     <t>71,21%</t>
   </si>
   <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
   </si>
   <si>
     <t>29,09%</t>
   </si>
   <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
   </si>
   <si>
     <t>16,86%</t>
   </si>
   <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
   </si>
   <si>
     <t>22,23%</t>
   </si>
   <si>
-    <t>14,28%</t>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
   </si>
   <si>
     <t>32,06%</t>
   </si>
   <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
   </si>
   <si>
     <t>67,94%</t>
   </si>
   <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
+    <t>76,5%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A6E0AA-50AB-4662-BEB2-465661B0490D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F978D4C2-87AD-41B3-958A-FAD26DA25331}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2116,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238BB567-A5E3-43D5-B48C-474DC16B99C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A91B1FA-F763-4AD7-B414-C23E2A5A64B0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2867,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFF92D5-C3E4-4A5B-BA55-D66D570D4FA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6D6557-4DD8-4DE1-95A2-B4D1B1459E08}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3618,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6828658-C875-47F4-BA32-C5BA37BCD94A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4935AD-23D4-4AF5-A1A7-EAAD14829C2F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4222,13 +4216,13 @@
         <v>53558</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>161</v>
@@ -4237,13 +4231,13 @@
         <v>118781</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,28 +4252,28 @@
         <v>130418</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H14" s="7">
         <v>259</v>
       </c>
       <c r="I14" s="7">
-        <v>182648</v>
+        <v>182649</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>409</v>
@@ -4288,13 +4282,13 @@
         <v>313066</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,7 +4315,7 @@
         <v>343</v>
       </c>
       <c r="I15" s="7">
-        <v>236206</v>
+        <v>236207</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P20B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P20B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC3ECD50-3D67-4DE4-8F91-1996B4ED28F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE8DEF18-7387-4781-8794-5B9EFB215032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A3655DF6-151F-411A-B6EE-DA62CACCB6CB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4A24A811-9580-4559-98E6-2D9311C2450E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -740,214 +740,214 @@
     <t>Población según si estuvo en lista de espera por ingreso hospitalario en 2023 (Tasa respuesta: 6,54%)</t>
   </si>
   <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
   </si>
   <si>
     <t>22,59%</t>
   </si>
   <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
   </si>
   <si>
     <t>77,41%</t>
   </si>
   <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F978D4C2-87AD-41B3-958A-FAD26DA25331}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCD5105-EBEB-44B7-AAB0-0161B8434553}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2110,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A91B1FA-F763-4AD7-B414-C23E2A5A64B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D0230D-930F-499F-908A-249052186BC3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2861,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6D6557-4DD8-4DE1-95A2-B4D1B1459E08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98026E0-79FD-4150-B140-FF6F4A496FCA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3612,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4935AD-23D4-4AF5-A1A7-EAAD14829C2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC455EE-5EC2-452F-82D2-8AA36AD859DF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3733,7 +3733,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="7">
-        <v>19969</v>
+        <v>18745</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>233</v>
@@ -3748,7 +3748,7 @@
         <v>27</v>
       </c>
       <c r="I4" s="7">
-        <v>14619</v>
+        <v>13497</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>236</v>
@@ -3763,7 +3763,7 @@
         <v>53</v>
       </c>
       <c r="N4" s="7">
-        <v>34588</v>
+        <v>32242</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>239</v>
@@ -3784,7 +3784,7 @@
         <v>53</v>
       </c>
       <c r="D5" s="7">
-        <v>38665</v>
+        <v>36857</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>242</v>
@@ -3799,7 +3799,7 @@
         <v>81</v>
       </c>
       <c r="I5" s="7">
-        <v>46232</v>
+        <v>42462</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>245</v>
@@ -3814,7 +3814,7 @@
         <v>134</v>
       </c>
       <c r="N5" s="7">
-        <v>84897</v>
+        <v>79319</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>248</v>
@@ -3835,7 +3835,7 @@
         <v>79</v>
       </c>
       <c r="D6" s="7">
-        <v>58634</v>
+        <v>55602</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3850,7 +3850,7 @@
         <v>108</v>
       </c>
       <c r="I6" s="7">
-        <v>60851</v>
+        <v>55959</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3865,7 +3865,7 @@
         <v>187</v>
       </c>
       <c r="N6" s="7">
-        <v>119485</v>
+        <v>111561</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3888,7 +3888,7 @@
         <v>39</v>
       </c>
       <c r="D7" s="7">
-        <v>34100</v>
+        <v>32819</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>251</v>
@@ -3903,7 +3903,7 @@
         <v>43</v>
       </c>
       <c r="I7" s="7">
-        <v>30666</v>
+        <v>28491</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>254</v>
@@ -3918,7 +3918,7 @@
         <v>82</v>
       </c>
       <c r="N7" s="7">
-        <v>64767</v>
+        <v>61311</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>257</v>
@@ -3927,7 +3927,7 @@
         <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,46 +3939,46 @@
         <v>70</v>
       </c>
       <c r="D8" s="7">
-        <v>64566</v>
+        <v>61947</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>129</v>
       </c>
       <c r="I8" s="7">
-        <v>95636</v>
+        <v>87964</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>199</v>
       </c>
       <c r="N8" s="7">
-        <v>160201</v>
+        <v>149910</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,7 +3990,7 @@
         <v>109</v>
       </c>
       <c r="D9" s="7">
-        <v>98666</v>
+        <v>94766</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4005,7 +4005,7 @@
         <v>172</v>
       </c>
       <c r="I9" s="7">
-        <v>126302</v>
+        <v>116455</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4020,7 +4020,7 @@
         <v>281</v>
       </c>
       <c r="N9" s="7">
-        <v>224968</v>
+        <v>211221</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4043,46 +4043,46 @@
         <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>11153</v>
+        <v>10712</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>8273</v>
+        <v>7689</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
       </c>
       <c r="N10" s="7">
-        <v>19426</v>
+        <v>18401</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,46 +4094,46 @@
         <v>27</v>
       </c>
       <c r="D11" s="7">
-        <v>27188</v>
+        <v>26276</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>49</v>
       </c>
       <c r="I11" s="7">
-        <v>40780</v>
+        <v>36574</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>76</v>
       </c>
       <c r="N11" s="7">
-        <v>67968</v>
+        <v>62850</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,7 +4145,7 @@
         <v>39</v>
       </c>
       <c r="D12" s="7">
-        <v>38341</v>
+        <v>36988</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4160,7 +4160,7 @@
         <v>63</v>
       </c>
       <c r="I12" s="7">
-        <v>49053</v>
+        <v>44263</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4175,7 +4175,7 @@
         <v>102</v>
       </c>
       <c r="N12" s="7">
-        <v>87394</v>
+        <v>81251</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4198,46 +4198,46 @@
         <v>77</v>
       </c>
       <c r="D13" s="7">
-        <v>65223</v>
+        <v>62277</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>84</v>
       </c>
       <c r="I13" s="7">
-        <v>53558</v>
+        <v>49677</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>150</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M13" s="7">
         <v>161</v>
       </c>
       <c r="N13" s="7">
-        <v>118781</v>
+        <v>111954</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,25 +4249,25 @@
         <v>150</v>
       </c>
       <c r="D14" s="7">
-        <v>130418</v>
+        <v>125079</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>259</v>
       </c>
       <c r="I14" s="7">
-        <v>182649</v>
+        <v>167000</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>160</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>298</v>
@@ -4279,7 +4279,7 @@
         <v>409</v>
       </c>
       <c r="N14" s="7">
-        <v>313066</v>
+        <v>292079</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>300</v>
@@ -4300,7 +4300,7 @@
         <v>227</v>
       </c>
       <c r="D15" s="7">
-        <v>195641</v>
+        <v>187356</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4315,7 +4315,7 @@
         <v>343</v>
       </c>
       <c r="I15" s="7">
-        <v>236207</v>
+        <v>216677</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4330,7 +4330,7 @@
         <v>570</v>
       </c>
       <c r="N15" s="7">
-        <v>431847</v>
+        <v>404033</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
